--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:22:57+00:00</t>
+    <t>2025-11-14T07:24:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:24:46+00:00</t>
+    <t>2025-11-14T07:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:30:49+00:00</t>
+    <t>2025-11-14T08:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6288" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6288" uniqueCount="756">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T08:50:36+00:00</t>
+    <t>2025-11-18T17:20:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,7 +118,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/bp</t>
+    <t>http://hl7.org/fhir/StructureDefinition/bp|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -488,6 +488,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-bp|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Observation.meta.security</t>
   </si>
   <si>
@@ -1226,7 +1229,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1318,7 +1321,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|PractitionerRole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
+    <t xml:space="preserve">Reference(CareTeam|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot|PractitionerRole|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1492,7 +1495,7 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-spo2-body-location</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-spo2-body-location|2.2.0-ballot</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1522,7 +1525,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-bp-meas-method</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-bp-meas-method|2.2.0-ballot</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -2706,7 +2709,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="232.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2721,7 +2724,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.95703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.46875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.4453125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3993,7 +3996,7 @@
         <v>83</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>83</v>
@@ -4067,10 +4070,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -4093,16 +4096,16 @@
         <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -4128,13 +4131,13 @@
         <v>83</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>83</v>
@@ -4152,7 +4155,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -4187,10 +4190,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -4213,16 +4216,16 @@
         <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -4248,13 +4251,13 @@
         <v>83</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>83</v>
@@ -4272,7 +4275,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -4307,10 +4310,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4336,13 +4339,13 @@
         <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4392,7 +4395,7 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -4427,10 +4430,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4453,16 +4456,16 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4488,13 +4491,13 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
@@ -4512,7 +4515,7 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -4547,14 +4550,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4573,16 +4576,16 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4632,7 +4635,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4656,7 +4659,7 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>83</v>
@@ -4667,14 +4670,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4693,16 +4696,16 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4752,7 +4755,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4776,7 +4779,7 @@
         <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4787,10 +4790,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4816,10 +4819,10 @@
         <v>115</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4868,7 +4871,7 @@
         <v>121</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4903,13 +4906,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>83</v>
@@ -4931,13 +4934,13 @@
         <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4988,7 +4991,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -5023,10 +5026,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -5052,16 +5055,16 @@
         <v>115</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -5110,7 +5113,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -5134,7 +5137,7 @@
         <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -5145,10 +5148,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5171,17 +5174,17 @@
         <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -5230,7 +5233,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -5245,19 +5248,19 @@
         <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -5265,14 +5268,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -5291,17 +5294,17 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -5350,7 +5353,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -5365,16 +5368,16 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -5385,14 +5388,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5411,16 +5414,16 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5470,7 +5473,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -5485,16 +5488,16 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
@@ -5505,10 +5508,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5531,19 +5534,19 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -5568,11 +5571,11 @@
         <v>83</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
@@ -5590,7 +5593,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>94</v>
@@ -5605,19 +5608,19 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -5625,10 +5628,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5651,19 +5654,19 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5688,19 +5691,19 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
@@ -5710,7 +5713,7 @@
         <v>121</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5734,10 +5737,10 @@
         <v>83</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5745,13 +5748,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>83</v>
@@ -5773,19 +5776,19 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5810,13 +5813,13 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
@@ -5834,7 +5837,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5858,10 +5861,10 @@
         <v>83</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5869,10 +5872,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5987,10 +5990,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -6107,10 +6110,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6133,19 +6136,19 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -6194,7 +6197,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -6215,10 +6218,10 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -6229,10 +6232,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6347,10 +6350,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6467,10 +6470,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6496,23 +6499,23 @@
         <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>83</v>
@@ -6554,7 +6557,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6575,10 +6578,10 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -6589,10 +6592,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6618,13 +6621,13 @@
         <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6674,7 +6677,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6695,10 +6698,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6709,10 +6712,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6735,24 +6738,24 @@
         <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>83</v>
@@ -6794,7 +6797,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6815,10 +6818,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6829,10 +6832,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6858,14 +6861,14 @@
         <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6914,7 +6917,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6935,10 +6938,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6949,10 +6952,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6975,19 +6978,19 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -7036,7 +7039,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -7057,10 +7060,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -7071,10 +7074,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7100,16 +7103,16 @@
         <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -7158,7 +7161,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -7179,10 +7182,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -7193,14 +7196,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -7219,19 +7222,19 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -7256,13 +7259,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -7280,7 +7283,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>94</v>
@@ -7295,30 +7298,30 @@
         <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7433,10 +7436,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7553,10 +7556,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7579,19 +7582,19 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7628,7 +7631,7 @@
         <v>83</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
@@ -7638,7 +7641,7 @@
         <v>121</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7659,10 +7662,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7673,13 +7676,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>83</v>
@@ -7701,19 +7704,19 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7762,7 +7765,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7783,10 +7786,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7797,10 +7800,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7915,10 +7918,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8035,10 +8038,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8064,23 +8067,23 @@
         <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>83</v>
@@ -8122,7 +8125,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -8143,10 +8146,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -8157,10 +8160,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8186,13 +8189,13 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8242,7 +8245,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -8263,10 +8266,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -8277,10 +8280,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8303,24 +8306,24 @@
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>83</v>
@@ -8362,7 +8365,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8383,10 +8386,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -8397,10 +8400,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8426,14 +8429,14 @@
         <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -8482,7 +8485,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8503,10 +8506,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8517,10 +8520,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8543,19 +8546,19 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8604,7 +8607,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8625,10 +8628,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8639,10 +8642,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8668,16 +8671,16 @@
         <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8726,7 +8729,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8747,10 +8750,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8761,10 +8764,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8787,19 +8790,19 @@
         <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8848,7 +8851,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8863,19 +8866,19 @@
         <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
@@ -8883,10 +8886,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8909,16 +8912,16 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8968,7 +8971,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8989,13 +8992,13 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -9003,14 +9006,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -9029,19 +9032,19 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -9090,7 +9093,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -9105,19 +9108,19 @@
         <v>106</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -9125,14 +9128,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -9151,19 +9154,19 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -9212,7 +9215,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -9221,25 +9224,25 @@
         <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -9247,10 +9250,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9276,13 +9279,13 @@
         <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9332,7 +9335,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9353,13 +9356,13 @@
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -9367,10 +9370,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9393,17 +9396,17 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -9452,7 +9455,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9467,19 +9470,19 @@
         <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9487,10 +9490,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9513,19 +9516,19 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -9562,17 +9565,17 @@
         <v>83</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9581,7 +9584,7 @@
         <v>94</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>106</v>
@@ -9590,30 +9593,30 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>83</v>
@@ -9635,19 +9638,19 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9696,7 +9699,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9705,7 +9708,7 @@
         <v>94</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>106</v>
@@ -9714,27 +9717,27 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9757,19 +9760,19 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9794,13 +9797,13 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9818,7 +9821,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9827,7 +9830,7 @@
         <v>94</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>106</v>
@@ -9839,10 +9842,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9853,14 +9856,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9879,19 +9882,19 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9916,13 +9919,13 @@
         <v>83</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
@@ -9940,7 +9943,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9958,27 +9961,27 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10001,19 +10004,19 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -10062,7 +10065,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -10083,10 +10086,10 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -10097,10 +10100,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10123,16 +10126,16 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10158,11 +10161,11 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
@@ -10180,7 +10183,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -10198,27 +10201,27 @@
         <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10241,19 +10244,19 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -10278,11 +10281,11 @@
         <v>83</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>83</v>
@@ -10300,7 +10303,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10321,10 +10324,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -10335,10 +10338,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10361,16 +10364,16 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10420,7 +10423,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10438,27 +10441,27 @@
         <v>83</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10481,16 +10484,16 @@
         <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10540,7 +10543,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10558,27 +10561,27 @@
         <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10601,19 +10604,19 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -10662,7 +10665,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10674,7 +10677,7 @@
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>83</v>
@@ -10683,10 +10686,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10697,10 +10700,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10815,10 +10818,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10935,14 +10938,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10964,16 +10967,16 @@
         <v>115</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -11022,7 +11025,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -11046,7 +11049,7 @@
         <v>83</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -11057,10 +11060,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11083,13 +11086,13 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -11140,7 +11143,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -11149,7 +11152,7 @@
         <v>94</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>106</v>
@@ -11161,10 +11164,10 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -11175,10 +11178,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11201,13 +11204,13 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -11258,7 +11261,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -11267,7 +11270,7 @@
         <v>94</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>106</v>
@@ -11279,10 +11282,10 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -11293,10 +11296,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11319,19 +11322,19 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -11356,13 +11359,13 @@
         <v>83</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>83</v>
@@ -11380,7 +11383,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11398,13 +11401,13 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -11415,10 +11418,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11441,19 +11444,19 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -11478,13 +11481,13 @@
         <v>83</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>83</v>
@@ -11502,7 +11505,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11520,13 +11523,13 @@
         <v>83</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11537,10 +11540,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11563,17 +11566,17 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -11622,7 +11625,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11646,7 +11649,7 @@
         <v>83</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11657,10 +11660,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11686,10 +11689,10 @@
         <v>108</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11740,7 +11743,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11761,10 +11764,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11775,10 +11778,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11801,16 +11804,16 @@
         <v>95</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11860,7 +11863,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11881,10 +11884,10 @@
         <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11895,10 +11898,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11921,16 +11924,16 @@
         <v>95</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11980,7 +11983,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -12001,10 +12004,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -12015,10 +12018,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12026,7 +12029,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>82</v>
@@ -12041,19 +12044,19 @@
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -12090,7 +12093,7 @@
         <v>83</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AC78" s="2"/>
       <c r="AD78" t="s" s="2">
@@ -12100,7 +12103,7 @@
         <v>121</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -12112,7 +12115,7 @@
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>83</v>
@@ -12121,10 +12124,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -12135,10 +12138,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12253,10 +12256,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12373,14 +12376,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12402,16 +12405,16 @@
         <v>115</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12460,7 +12463,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12484,7 +12487,7 @@
         <v>83</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12495,10 +12498,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12521,19 +12524,19 @@
         <v>95</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12558,13 +12561,13 @@
         <v>83</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>83</v>
@@ -12582,7 +12585,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>94</v>
@@ -12600,16 +12603,16 @@
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>83</v>
@@ -12617,10 +12620,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12643,19 +12646,19 @@
         <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -12680,13 +12683,13 @@
         <v>83</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>83</v>
@@ -12704,7 +12707,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12713,7 +12716,7 @@
         <v>94</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>106</v>
@@ -12722,27 +12725,27 @@
         <v>83</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12765,19 +12768,19 @@
         <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
@@ -12802,13 +12805,13 @@
         <v>83</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>83</v>
@@ -12826,7 +12829,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12835,7 +12838,7 @@
         <v>94</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>106</v>
@@ -12847,10 +12850,10 @@
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12861,14 +12864,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12887,19 +12890,19 @@
         <v>83</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12924,13 +12927,13 @@
         <v>83</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>83</v>
@@ -12948,7 +12951,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12966,27 +12969,27 @@
         <v>83</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13012,16 +13015,16 @@
         <v>84</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -13070,7 +13073,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -13091,10 +13094,10 @@
         <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -13105,13 +13108,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>83</v>
@@ -13133,19 +13136,19 @@
         <v>95</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
@@ -13194,7 +13197,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -13206,7 +13209,7 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>83</v>
@@ -13215,10 +13218,10 @@
         <v>83</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -13229,10 +13232,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13347,10 +13350,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13467,14 +13470,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13496,16 +13499,16 @@
         <v>115</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13554,7 +13557,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13578,7 +13581,7 @@
         <v>83</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
@@ -13589,14 +13592,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13615,19 +13618,19 @@
         <v>95</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13652,13 +13655,13 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -13676,7 +13679,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>94</v>
@@ -13694,16 +13697,16 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>83</v>
@@ -13711,10 +13714,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13829,10 +13832,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13949,10 +13952,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13975,19 +13978,19 @@
         <v>95</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>83</v>
@@ -14024,7 +14027,7 @@
         <v>83</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
@@ -14034,7 +14037,7 @@
         <v>121</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -14055,10 +14058,10 @@
         <v>83</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
@@ -14069,13 +14072,13 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>83</v>
@@ -14097,19 +14100,19 @@
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -14158,7 +14161,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -14179,10 +14182,10 @@
         <v>83</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
@@ -14193,10 +14196,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14311,10 +14314,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14431,10 +14434,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14460,23 +14463,23 @@
         <v>136</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>83</v>
@@ -14518,7 +14521,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14539,10 +14542,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14553,10 +14556,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14582,13 +14585,13 @@
         <v>108</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14638,7 +14641,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14659,10 +14662,10 @@
         <v>83</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
@@ -14673,10 +14676,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14699,24 +14702,24 @@
         <v>95</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>83</v>
@@ -14758,7 +14761,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14779,10 +14782,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14793,10 +14796,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14822,14 +14825,14 @@
         <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>83</v>
@@ -14878,7 +14881,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14899,10 +14902,10 @@
         <v>83</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14913,10 +14916,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14939,19 +14942,19 @@
         <v>95</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>83</v>
@@ -15000,7 +15003,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -15021,10 +15024,10 @@
         <v>83</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
@@ -15035,10 +15038,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15064,16 +15067,16 @@
         <v>108</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -15122,7 +15125,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -15143,10 +15146,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -15157,10 +15160,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15183,19 +15186,19 @@
         <v>95</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>83</v>
@@ -15220,19 +15223,19 @@
         <v>83</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AC104" s="2"/>
       <c r="AD104" t="s" s="2">
@@ -15242,7 +15245,7 @@
         <v>121</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -15251,7 +15254,7 @@
         <v>94</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>106</v>
@@ -15260,27 +15263,27 @@
         <v>83</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15395,10 +15398,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15515,10 +15518,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15541,19 +15544,19 @@
         <v>95</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>83</v>
@@ -15602,7 +15605,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15623,10 +15626,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15637,10 +15640,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15663,23 +15666,23 @@
         <v>95</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q108" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="R108" t="s" s="2">
         <v>83</v>
@@ -15700,13 +15703,13 @@
         <v>83</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>83</v>
@@ -15724,7 +15727,7 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15745,10 +15748,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15759,10 +15762,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15788,14 +15791,14 @@
         <v>108</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15844,7 +15847,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15865,10 +15868,10 @@
         <v>83</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15879,10 +15882,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15908,21 +15911,21 @@
         <v>136</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>83</v>
@@ -15964,7 +15967,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15973,7 +15976,7 @@
         <v>94</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>106</v>
@@ -15985,10 +15988,10 @@
         <v>83</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15999,10 +16002,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16025,26 +16028,26 @@
         <v>95</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>83</v>
@@ -16086,7 +16089,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -16107,10 +16110,10 @@
         <v>83</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -16121,10 +16124,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16147,19 +16150,19 @@
         <v>83</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>83</v>
@@ -16184,13 +16187,13 @@
         <v>83</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>83</v>
@@ -16208,7 +16211,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -16217,7 +16220,7 @@
         <v>94</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>106</v>
@@ -16229,10 +16232,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16243,14 +16246,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16269,19 +16272,19 @@
         <v>83</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>83</v>
@@ -16306,13 +16309,13 @@
         <v>83</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>83</v>
@@ -16330,7 +16333,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16348,27 +16351,27 @@
         <v>83</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16394,16 +16397,16 @@
         <v>84</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>83</v>
@@ -16452,7 +16455,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16473,10 +16476,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16487,13 +16490,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>83</v>
@@ -16515,19 +16518,19 @@
         <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16576,7 +16579,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16588,7 +16591,7 @@
         <v>83</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>83</v>
@@ -16597,10 +16600,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16611,10 +16614,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16729,10 +16732,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16849,14 +16852,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16878,16 +16881,16 @@
         <v>115</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>83</v>
@@ -16936,7 +16939,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16960,7 +16963,7 @@
         <v>83</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>83</v>
@@ -16971,10 +16974,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16997,19 +17000,19 @@
         <v>95</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>83</v>
@@ -17034,13 +17037,13 @@
         <v>83</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>83</v>
@@ -17058,7 +17061,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>94</v>
@@ -17076,16 +17079,16 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>83</v>
@@ -17093,10 +17096,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17211,10 +17214,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17331,10 +17334,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17357,19 +17360,19 @@
         <v>95</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17406,7 +17409,7 @@
         <v>83</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC122" s="2"/>
       <c r="AD122" t="s" s="2">
@@ -17416,7 +17419,7 @@
         <v>121</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17437,10 +17440,10 @@
         <v>83</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
@@ -17451,13 +17454,13 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>83</v>
@@ -17479,19 +17482,19 @@
         <v>95</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17540,7 +17543,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17561,10 +17564,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>
@@ -17575,10 +17578,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17693,10 +17696,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17813,10 +17816,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17842,23 +17845,23 @@
         <v>136</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>83</v>
@@ -17900,7 +17903,7 @@
         <v>83</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>81</v>
@@ -17921,10 +17924,10 @@
         <v>83</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>83</v>
@@ -17935,10 +17938,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17964,13 +17967,13 @@
         <v>108</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -18020,7 +18023,7 @@
         <v>83</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>81</v>
@@ -18041,10 +18044,10 @@
         <v>83</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>83</v>
@@ -18055,10 +18058,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18081,24 +18084,24 @@
         <v>95</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>83</v>
@@ -18140,7 +18143,7 @@
         <v>83</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>81</v>
@@ -18161,10 +18164,10 @@
         <v>83</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>83</v>
@@ -18175,10 +18178,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18204,14 +18207,14 @@
         <v>108</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>83</v>
@@ -18260,7 +18263,7 @@
         <v>83</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>81</v>
@@ -18281,10 +18284,10 @@
         <v>83</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>83</v>
@@ -18295,10 +18298,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18321,19 +18324,19 @@
         <v>95</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>83</v>
@@ -18382,7 +18385,7 @@
         <v>83</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>81</v>
@@ -18403,10 +18406,10 @@
         <v>83</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>83</v>
@@ -18417,10 +18420,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18446,16 +18449,16 @@
         <v>108</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>83</v>
@@ -18504,7 +18507,7 @@
         <v>83</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>81</v>
@@ -18525,10 +18528,10 @@
         <v>83</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>83</v>
@@ -18539,10 +18542,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18565,19 +18568,19 @@
         <v>95</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>83</v>
@@ -18602,19 +18605,19 @@
         <v>83</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB132" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AC132" s="2"/>
       <c r="AD132" t="s" s="2">
@@ -18624,7 +18627,7 @@
         <v>121</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>81</v>
@@ -18633,7 +18636,7 @@
         <v>94</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>106</v>
@@ -18642,27 +18645,27 @@
         <v>83</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP132" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18777,10 +18780,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18897,10 +18900,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18923,19 +18926,19 @@
         <v>95</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>83</v>
@@ -18984,7 +18987,7 @@
         <v>83</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>81</v>
@@ -19005,10 +19008,10 @@
         <v>83</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>83</v>
@@ -19019,10 +19022,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19045,23 +19048,23 @@
         <v>95</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q136" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="R136" t="s" s="2">
         <v>83</v>
@@ -19082,13 +19085,13 @@
         <v>83</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>83</v>
@@ -19106,7 +19109,7 @@
         <v>83</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>81</v>
@@ -19127,10 +19130,10 @@
         <v>83</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>83</v>
@@ -19141,10 +19144,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19170,14 +19173,14 @@
         <v>108</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>83</v>
@@ -19226,7 +19229,7 @@
         <v>83</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>81</v>
@@ -19247,10 +19250,10 @@
         <v>83</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>83</v>
@@ -19261,10 +19264,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19290,21 +19293,21 @@
         <v>136</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>83</v>
@@ -19346,7 +19349,7 @@
         <v>83</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>81</v>
@@ -19355,7 +19358,7 @@
         <v>94</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>106</v>
@@ -19367,10 +19370,10 @@
         <v>83</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>83</v>
@@ -19381,10 +19384,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19407,26 +19410,26 @@
         <v>95</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>83</v>
@@ -19468,7 +19471,7 @@
         <v>83</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>81</v>
@@ -19489,10 +19492,10 @@
         <v>83</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>83</v>
@@ -19503,10 +19506,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19529,19 +19532,19 @@
         <v>83</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>83</v>
@@ -19566,13 +19569,13 @@
         <v>83</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>83</v>
@@ -19590,7 +19593,7 @@
         <v>83</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>81</v>
@@ -19599,7 +19602,7 @@
         <v>94</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>106</v>
@@ -19611,10 +19614,10 @@
         <v>83</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>83</v>
@@ -19625,14 +19628,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19651,19 +19654,19 @@
         <v>83</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>83</v>
@@ -19688,13 +19691,13 @@
         <v>83</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>83</v>
@@ -19712,7 +19715,7 @@
         <v>83</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>81</v>
@@ -19730,27 +19733,27 @@
         <v>83</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP141" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19776,16 +19779,16 @@
         <v>84</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>83</v>
@@ -19834,7 +19837,7 @@
         <v>83</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>81</v>
@@ -19855,10 +19858,10 @@
         <v>83</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>83</v>
@@ -19869,13 +19872,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>83</v>
@@ -19897,19 +19900,19 @@
         <v>95</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>83</v>
@@ -19958,7 +19961,7 @@
         <v>83</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>81</v>
@@ -19970,7 +19973,7 @@
         <v>83</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>83</v>
@@ -19979,10 +19982,10 @@
         <v>83</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>83</v>
@@ -19993,10 +19996,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20111,10 +20114,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20231,14 +20234,14 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -20260,16 +20263,16 @@
         <v>115</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N146" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>83</v>
@@ -20318,7 +20321,7 @@
         <v>83</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>81</v>
@@ -20342,7 +20345,7 @@
         <v>83</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>83</v>
@@ -20353,10 +20356,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20379,19 +20382,19 @@
         <v>95</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>83</v>
@@ -20416,13 +20419,13 @@
         <v>83</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>83</v>
@@ -20440,7 +20443,7 @@
         <v>83</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>94</v>
@@ -20458,16 +20461,16 @@
         <v>83</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>83</v>
@@ -20475,10 +20478,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20593,10 +20596,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20713,10 +20716,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20739,19 +20742,19 @@
         <v>95</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>83</v>
@@ -20788,10 +20791,10 @@
         <v>83</v>
       </c>
       <c r="AB150" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC150" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD150" t="s" s="2">
         <v>83</v>
@@ -20800,7 +20803,7 @@
         <v>121</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>81</v>
@@ -20821,10 +20824,10 @@
         <v>83</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>83</v>
@@ -20835,13 +20838,13 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>83</v>
@@ -20863,19 +20866,19 @@
         <v>95</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>83</v>
@@ -20924,7 +20927,7 @@
         <v>83</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>81</v>
@@ -20945,10 +20948,10 @@
         <v>83</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>83</v>
@@ -20959,10 +20962,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21077,10 +21080,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21197,10 +21200,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21226,16 +21229,16 @@
         <v>136</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>83</v>
@@ -21245,7 +21248,7 @@
         <v>83</v>
       </c>
       <c r="S154" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>83</v>
@@ -21284,7 +21287,7 @@
         <v>83</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>81</v>
@@ -21305,10 +21308,10 @@
         <v>83</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>83</v>
@@ -21319,10 +21322,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21348,13 +21351,13 @@
         <v>108</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -21404,7 +21407,7 @@
         <v>83</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>81</v>
@@ -21425,10 +21428,10 @@
         <v>83</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>83</v>
@@ -21439,10 +21442,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21465,17 +21468,17 @@
         <v>95</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>83</v>
@@ -21485,7 +21488,7 @@
         <v>83</v>
       </c>
       <c r="S156" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="T156" t="s" s="2">
         <v>83</v>
@@ -21524,7 +21527,7 @@
         <v>83</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>81</v>
@@ -21545,10 +21548,10 @@
         <v>83</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>83</v>
@@ -21559,10 +21562,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21588,14 +21591,14 @@
         <v>108</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>83</v>
@@ -21644,7 +21647,7 @@
         <v>83</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>81</v>
@@ -21665,10 +21668,10 @@
         <v>83</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>83</v>
@@ -21679,10 +21682,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21705,19 +21708,19 @@
         <v>95</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>83</v>
@@ -21766,7 +21769,7 @@
         <v>83</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>81</v>
@@ -21787,10 +21790,10 @@
         <v>83</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>83</v>
@@ -21801,10 +21804,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21830,16 +21833,16 @@
         <v>108</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>83</v>
@@ -21888,7 +21891,7 @@
         <v>83</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>81</v>
@@ -21909,10 +21912,10 @@
         <v>83</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>83</v>
@@ -21923,10 +21926,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21949,19 +21952,19 @@
         <v>95</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>83</v>
@@ -21986,13 +21989,13 @@
         <v>83</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>83</v>
@@ -22010,7 +22013,7 @@
         <v>83</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>81</v>
@@ -22019,7 +22022,7 @@
         <v>94</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>106</v>
@@ -22028,27 +22031,27 @@
         <v>83</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP160" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22071,19 +22074,19 @@
         <v>83</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>83</v>
@@ -22108,13 +22111,13 @@
         <v>83</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z161" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>83</v>
@@ -22132,7 +22135,7 @@
         <v>83</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>81</v>
@@ -22141,7 +22144,7 @@
         <v>94</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>106</v>
@@ -22153,10 +22156,10 @@
         <v>83</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>83</v>
@@ -22167,14 +22170,14 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
@@ -22193,19 +22196,19 @@
         <v>83</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>83</v>
@@ -22230,13 +22233,13 @@
         <v>83</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>83</v>
@@ -22254,7 +22257,7 @@
         <v>83</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>81</v>
@@ -22272,27 +22275,27 @@
         <v>83</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP162" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22318,16 +22321,16 @@
         <v>84</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>83</v>
@@ -22376,7 +22379,7 @@
         <v>83</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>81</v>
@@ -22397,10 +22400,10 @@
         <v>83</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>83</v>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:20:39+00:00</t>
+    <t>2025-12-05T08:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:27:25+00:00</t>
+    <t>2025-12-05T08:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:30:09+00:00</t>
+    <t>2025-12-05T08:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:32:19+00:00</t>
+    <t>2025-12-05T09:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:13:38+00:00</t>
+    <t>2025-12-05T09:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
